--- a/Code/Results/Cases/Case_8_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017167370795308</v>
+        <v>1.014282911603694</v>
       </c>
       <c r="D2">
-        <v>1.032102240111617</v>
+        <v>1.029325736109862</v>
       </c>
       <c r="E2">
-        <v>1.030181256986615</v>
+        <v>1.027882014721847</v>
       </c>
       <c r="F2">
-        <v>1.038582412944619</v>
+        <v>1.036746510892626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049997847915497</v>
+        <v>1.048490243663497</v>
       </c>
       <c r="J2">
-        <v>1.038846458671287</v>
+        <v>1.036044656983455</v>
       </c>
       <c r="K2">
-        <v>1.043131747378305</v>
+        <v>1.040391093001339</v>
       </c>
       <c r="L2">
-        <v>1.041235541803225</v>
+        <v>1.038966108452871</v>
       </c>
       <c r="M2">
-        <v>1.049529180709856</v>
+        <v>1.04771658848531</v>
       </c>
       <c r="N2">
-        <v>1.040321739799962</v>
+        <v>1.029807032348796</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047771378663289</v>
+        <v>1.046336846337589</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041568163668157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039639040632011</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022774614711679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020547695356917</v>
+        <v>1.017428402791719</v>
       </c>
       <c r="D3">
-        <v>1.03429785738101</v>
+        <v>1.031284707112015</v>
       </c>
       <c r="E3">
-        <v>1.032808354096064</v>
+        <v>1.030317267355147</v>
       </c>
       <c r="F3">
-        <v>1.0411555304252</v>
+        <v>1.039167777397338</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050754457553576</v>
+        <v>1.049115340366818</v>
       </c>
       <c r="J3">
-        <v>1.040493462400925</v>
+        <v>1.03745497028253</v>
       </c>
       <c r="K3">
-        <v>1.0445099212412</v>
+        <v>1.041532350777172</v>
       </c>
       <c r="L3">
-        <v>1.04303797413753</v>
+        <v>1.04057638940973</v>
       </c>
       <c r="M3">
-        <v>1.051287566525631</v>
+        <v>1.049322875800097</v>
       </c>
       <c r="N3">
-        <v>1.041971082463802</v>
+        <v>1.03059774255383</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049163007979011</v>
+        <v>1.047608103767049</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042539989250865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040443071004699</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022983950194799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022700456263772</v>
+        <v>1.019432823897421</v>
       </c>
       <c r="D4">
-        <v>1.035700154984917</v>
+        <v>1.032536996046475</v>
       </c>
       <c r="E4">
-        <v>1.034487144248479</v>
+        <v>1.031874760726311</v>
       </c>
       <c r="F4">
-        <v>1.042800961436469</v>
+        <v>1.040717253830521</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051229362337243</v>
+        <v>1.049506786757068</v>
       </c>
       <c r="J4">
-        <v>1.041540782635716</v>
+        <v>1.038352168386198</v>
       </c>
       <c r="K4">
-        <v>1.045385988679069</v>
+        <v>1.042257968681328</v>
       </c>
       <c r="L4">
-        <v>1.044186421810258</v>
+        <v>1.041603123572166</v>
       </c>
       <c r="M4">
-        <v>1.0524088666178</v>
+        <v>1.050347891506195</v>
       </c>
       <c r="N4">
-        <v>1.043019890013456</v>
+        <v>1.031100765624794</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.05005043079256</v>
+        <v>1.048419326631291</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043160330239151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040957118613814</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023114778483962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023600274770015</v>
+        <v>1.020270783985612</v>
       </c>
       <c r="D5">
-        <v>1.036289365634164</v>
+        <v>1.033063626823351</v>
       </c>
       <c r="E5">
-        <v>1.03519038583676</v>
+        <v>1.032527398616477</v>
       </c>
       <c r="F5">
-        <v>1.043490061127222</v>
+        <v>1.041366335314729</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051427596383203</v>
+        <v>1.049670156466558</v>
       </c>
       <c r="J5">
-        <v>1.041979542002702</v>
+        <v>1.038728201473329</v>
       </c>
       <c r="K5">
-        <v>1.045754553649466</v>
+        <v>1.042563711380732</v>
       </c>
       <c r="L5">
-        <v>1.044667432835491</v>
+        <v>1.04203331010628</v>
       </c>
       <c r="M5">
-        <v>1.052878303479563</v>
+        <v>1.050777136065894</v>
       </c>
       <c r="N5">
-        <v>1.04345927246907</v>
+        <v>1.031311591744102</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050421953663119</v>
+        <v>1.048759041163297</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04342807169083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041181164454754</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02316984074817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023754359535705</v>
+        <v>1.020414132689788</v>
       </c>
       <c r="D6">
-        <v>1.036392911180611</v>
+        <v>1.033156415695881</v>
       </c>
       <c r="E6">
-        <v>1.035311114510855</v>
+        <v>1.03263934382934</v>
       </c>
       <c r="F6">
-        <v>1.043607846046602</v>
+        <v>1.041477175727556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051463175986024</v>
+        <v>1.049699710292424</v>
       </c>
       <c r="J6">
-        <v>1.042056348057508</v>
+        <v>1.038794127323552</v>
       </c>
       <c r="K6">
-        <v>1.045821035781853</v>
+        <v>1.042619395517128</v>
       </c>
       <c r="L6">
-        <v>1.044750859732249</v>
+        <v>1.042107917043921</v>
       </c>
       <c r="M6">
-        <v>1.052959221746079</v>
+        <v>1.050851081052969</v>
       </c>
       <c r="N6">
-        <v>1.043536187597283</v>
+        <v>1.031348553592133</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050485994177061</v>
+        <v>1.048817562999798</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043483783837196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041230125862239</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023180430324102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022721833317074</v>
+        <v>1.019469746059732</v>
       </c>
       <c r="D7">
-        <v>1.035721091783154</v>
+        <v>1.032569116615853</v>
       </c>
       <c r="E7">
-        <v>1.03450446195682</v>
+        <v>1.031905198247498</v>
       </c>
       <c r="F7">
-        <v>1.042816498275988</v>
+        <v>1.040743137223266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05123873190102</v>
+        <v>1.049523956964294</v>
       </c>
       <c r="J7">
-        <v>1.041555760085922</v>
+        <v>1.038382280379976</v>
       </c>
       <c r="K7">
-        <v>1.045403830423047</v>
+        <v>1.042286856086164</v>
       </c>
       <c r="L7">
-        <v>1.044200679472525</v>
+        <v>1.041630343689491</v>
       </c>
       <c r="M7">
-        <v>1.052421396923629</v>
+        <v>1.05037064686562</v>
       </c>
       <c r="N7">
-        <v>1.04303488873336</v>
+        <v>1.031169535371087</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050060347560281</v>
+        <v>1.04843733577731</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043192965431592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040999597206885</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023123322078338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018328692219636</v>
+        <v>1.015417075925146</v>
       </c>
       <c r="D8">
-        <v>1.032864279981966</v>
+        <v>1.030046169230756</v>
       </c>
       <c r="E8">
-        <v>1.031083428055885</v>
+        <v>1.028763425089503</v>
       </c>
       <c r="F8">
-        <v>1.039464014419406</v>
+        <v>1.037611566253357</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050264955294543</v>
+        <v>1.048739366578094</v>
       </c>
       <c r="J8">
-        <v>1.039418255865798</v>
+        <v>1.036587321586532</v>
       </c>
       <c r="K8">
-        <v>1.043616750638078</v>
+        <v>1.040833963868989</v>
       </c>
       <c r="L8">
-        <v>1.041858193034544</v>
+        <v>1.039567378421497</v>
       </c>
       <c r="M8">
-        <v>1.050134692491412</v>
+        <v>1.048305071549064</v>
       </c>
       <c r="N8">
-        <v>1.040894349012068</v>
+        <v>1.030268545546065</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048250595713891</v>
+        <v>1.046802587346922</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041933907498055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039977297995153</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022863651258203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010297788380054</v>
+        <v>1.007962122368837</v>
       </c>
       <c r="D9">
-        <v>1.027663986361607</v>
+        <v>1.025420030106855</v>
       </c>
       <c r="E9">
-        <v>1.024875037562525</v>
+        <v>1.023025070070156</v>
       </c>
       <c r="F9">
-        <v>1.033391408267451</v>
+        <v>1.03191141254938</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04842382830723</v>
+        <v>1.047217787665414</v>
       </c>
       <c r="J9">
-        <v>1.035492073368226</v>
+        <v>1.03323681693205</v>
       </c>
       <c r="K9">
-        <v>1.040323631122646</v>
+        <v>1.038113721448748</v>
       </c>
       <c r="L9">
-        <v>1.037577026529842</v>
+        <v>1.035755309290875</v>
       </c>
       <c r="M9">
-        <v>1.045965005974224</v>
+        <v>1.044507128809667</v>
       </c>
       <c r="N9">
-        <v>1.03696259088501</v>
+        <v>1.028408988201368</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044950596020207</v>
+        <v>1.04379679014922</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03960231285038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038050469170544</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022351308580502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004803299371946</v>
+        <v>1.002946885214349</v>
       </c>
       <c r="D10">
-        <v>1.024139868141457</v>
+        <v>1.022349954025323</v>
       </c>
       <c r="E10">
-        <v>1.020694647764562</v>
+        <v>1.019237145858572</v>
       </c>
       <c r="F10">
-        <v>1.029355526516788</v>
+        <v>1.028187019587601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047150511443791</v>
+        <v>1.046204081545171</v>
       </c>
       <c r="J10">
-        <v>1.032827631451265</v>
+        <v>1.031044069788893</v>
       </c>
       <c r="K10">
-        <v>1.038086532236393</v>
+        <v>1.036327067452748</v>
       </c>
       <c r="L10">
-        <v>1.034700043445577</v>
+        <v>1.033267542461068</v>
       </c>
       <c r="M10">
-        <v>1.043214242186737</v>
+        <v>1.042065339065741</v>
       </c>
       <c r="N10">
-        <v>1.034294365154911</v>
+        <v>1.027410995814653</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042824729528922</v>
+        <v>1.041915508244195</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038037307378723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036805648241467</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022015892161503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002839366496321</v>
+        <v>1.001247192672602</v>
       </c>
       <c r="D11">
-        <v>1.022953269696082</v>
+        <v>1.02139035836897</v>
       </c>
       <c r="E11">
-        <v>1.019480985567586</v>
+        <v>1.018242347194072</v>
       </c>
       <c r="F11">
-        <v>1.028562749470282</v>
+        <v>1.027569200053214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046847941451296</v>
+        <v>1.046039565136441</v>
       </c>
       <c r="J11">
-        <v>1.032094499704425</v>
+        <v>1.030568178857268</v>
       </c>
       <c r="K11">
-        <v>1.037454925193689</v>
+        <v>1.035919851779943</v>
       </c>
       <c r="L11">
-        <v>1.034044638390955</v>
+        <v>1.032828248764156</v>
       </c>
       <c r="M11">
-        <v>1.04296539399906</v>
+        <v>1.041989279279665</v>
       </c>
       <c r="N11">
-        <v>1.033560192276899</v>
+        <v>1.027585906233467</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043061707771983</v>
+        <v>1.042289612986672</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03762346509052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03655370756457</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021984307188911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002272208798495</v>
+        <v>1.000756685904209</v>
       </c>
       <c r="D12">
-        <v>1.022636414502776</v>
+        <v>1.021136893709168</v>
       </c>
       <c r="E12">
-        <v>1.019253464466624</v>
+        <v>1.018077810442317</v>
       </c>
       <c r="F12">
-        <v>1.028621561268072</v>
+        <v>1.027679028313221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046829543968935</v>
+        <v>1.046059722829002</v>
       </c>
       <c r="J12">
-        <v>1.031980715010381</v>
+        <v>1.03052905591287</v>
       </c>
       <c r="K12">
-        <v>1.037342417156045</v>
+        <v>1.035870046810748</v>
       </c>
       <c r="L12">
-        <v>1.034020866404731</v>
+        <v>1.032866674455787</v>
       </c>
       <c r="M12">
-        <v>1.043220219819674</v>
+        <v>1.0422944835815</v>
       </c>
       <c r="N12">
-        <v>1.033446245995538</v>
+        <v>1.027755882789132</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043588040818857</v>
+        <v>1.042856040375038</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037543918799279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036518494716072</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022003926636144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002753600918777</v>
+        <v>1.001158505162979</v>
       </c>
       <c r="D13">
-        <v>1.022982218458429</v>
+        <v>1.021411481910424</v>
       </c>
       <c r="E13">
-        <v>1.019780941326708</v>
+        <v>1.018538629376577</v>
       </c>
       <c r="F13">
-        <v>1.029359074398547</v>
+        <v>1.028364554220629</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047040680241406</v>
+        <v>1.046226987772622</v>
       </c>
       <c r="J13">
-        <v>1.03234968232254</v>
+        <v>1.030821473764058</v>
       </c>
       <c r="K13">
-        <v>1.037639372627977</v>
+        <v>1.036096958634357</v>
       </c>
       <c r="L13">
-        <v>1.034495939011574</v>
+        <v>1.033276201690498</v>
       </c>
       <c r="M13">
-        <v>1.04390239663065</v>
+        <v>1.042925508862607</v>
       </c>
       <c r="N13">
-        <v>1.033815737283601</v>
+        <v>1.027877421741148</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044402839575295</v>
+        <v>1.043630584995534</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037751390934321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036676196179399</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022066766686236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003565970398538</v>
+        <v>1.001846939347778</v>
       </c>
       <c r="D14">
-        <v>1.023526072266341</v>
+        <v>1.021846660905486</v>
       </c>
       <c r="E14">
-        <v>1.02049118647067</v>
+        <v>1.019145960268107</v>
       </c>
       <c r="F14">
-        <v>1.030181371529214</v>
+        <v>1.029105758884252</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047292565439411</v>
+        <v>1.046412489783645</v>
       </c>
       <c r="J14">
-        <v>1.032826592824381</v>
+        <v>1.031178629380101</v>
       </c>
       <c r="K14">
-        <v>1.038033958599631</v>
+        <v>1.036384460108997</v>
       </c>
       <c r="L14">
-        <v>1.035053221995065</v>
+        <v>1.033732131694763</v>
       </c>
       <c r="M14">
-        <v>1.044571959073302</v>
+        <v>1.043515170789585</v>
       </c>
       <c r="N14">
-        <v>1.034293325053057</v>
+        <v>1.027943071814849</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045104731503624</v>
+        <v>1.044269425578881</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038031793631045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036881023505724</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022131590289282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003997232568952</v>
+        <v>1.0022155056968</v>
       </c>
       <c r="D15">
-        <v>1.023809053878395</v>
+        <v>1.022075047089456</v>
       </c>
       <c r="E15">
-        <v>1.020837524881276</v>
+        <v>1.019440498771964</v>
       </c>
       <c r="F15">
-        <v>1.030545111668359</v>
+        <v>1.029428526953853</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047408202356222</v>
+        <v>1.04649499221023</v>
       </c>
       <c r="J15">
-        <v>1.033054573730446</v>
+        <v>1.031345873698216</v>
       </c>
       <c r="K15">
-        <v>1.038225998967577</v>
+        <v>1.036522646970657</v>
       </c>
       <c r="L15">
-        <v>1.035307085051237</v>
+        <v>1.033934932861981</v>
       </c>
       <c r="M15">
-        <v>1.04484423936459</v>
+        <v>1.043747046331228</v>
       </c>
       <c r="N15">
-        <v>1.034521629718159</v>
+        <v>1.027957189870876</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045357336772031</v>
+        <v>1.044490116866105</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03817342058057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036985150308296</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022159368502257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006227077659306</v>
+        <v>1.00414927291577</v>
       </c>
       <c r="D16">
-        <v>1.025232303480893</v>
+        <v>1.023239910068834</v>
       </c>
       <c r="E16">
-        <v>1.0225077132121</v>
+        <v>1.020867319752749</v>
       </c>
       <c r="F16">
-        <v>1.032141024814488</v>
+        <v>1.030831358894208</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04791947822955</v>
+        <v>1.046851291644335</v>
       </c>
       <c r="J16">
-        <v>1.034119791083678</v>
+        <v>1.032122966399373</v>
       </c>
       <c r="K16">
-        <v>1.039125065465577</v>
+        <v>1.03716638255767</v>
       </c>
       <c r="L16">
-        <v>1.036446616798911</v>
+        <v>1.034834157230798</v>
       </c>
       <c r="M16">
-        <v>1.045918191908868</v>
+        <v>1.044630285672814</v>
       </c>
       <c r="N16">
-        <v>1.035588359802215</v>
+        <v>1.027990968893968</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046167623752988</v>
+        <v>1.045149635604822</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038812244232338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037443754164451</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022270518495804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007514744423512</v>
+        <v>1.005290674808639</v>
       </c>
       <c r="D17">
-        <v>1.026042007359283</v>
+        <v>1.02391988878956</v>
       </c>
       <c r="E17">
-        <v>1.023418812657452</v>
+        <v>1.021658567594438</v>
       </c>
       <c r="F17">
-        <v>1.032930943928554</v>
+        <v>1.03152592966142</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048178158489791</v>
+        <v>1.04703337679011</v>
       </c>
       <c r="J17">
-        <v>1.034687173877862</v>
+        <v>1.032547047499375</v>
       </c>
       <c r="K17">
-        <v>1.039608329826428</v>
+        <v>1.037521123232729</v>
       </c>
       <c r="L17">
-        <v>1.037028317730836</v>
+        <v>1.035297209602952</v>
       </c>
       <c r="M17">
-        <v>1.046385202131598</v>
+        <v>1.045002887625418</v>
       </c>
       <c r="N17">
-        <v>1.036156548345046</v>
+        <v>1.028042034034152</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046408262928721</v>
+        <v>1.045315544433071</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039156507042549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037697399839483</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02232454095049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008098596852224</v>
+        <v>1.005823813551379</v>
       </c>
       <c r="D18">
-        <v>1.026381784243219</v>
+        <v>1.024214085736519</v>
       </c>
       <c r="E18">
-        <v>1.023732596626171</v>
+        <v>1.02193087098243</v>
       </c>
       <c r="F18">
-        <v>1.033049961248464</v>
+        <v>1.031611363434227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048232161740063</v>
+        <v>1.047061104306745</v>
       </c>
       <c r="J18">
-        <v>1.034859102059763</v>
+        <v>1.032668595422556</v>
       </c>
       <c r="K18">
-        <v>1.039760158797173</v>
+        <v>1.037627544388379</v>
       </c>
       <c r="L18">
-        <v>1.037153874058268</v>
+        <v>1.035381490186108</v>
       </c>
       <c r="M18">
-        <v>1.046321594234307</v>
+        <v>1.044905875324254</v>
       </c>
       <c r="N18">
-        <v>1.036328720684686</v>
+        <v>1.028028376838569</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046121400599355</v>
+        <v>1.045002044591926</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039252263390361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03775990213071</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022324436308458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008056892611964</v>
+        <v>1.005803118472508</v>
       </c>
       <c r="D19">
-        <v>1.026314594513072</v>
+        <v>1.024166598377275</v>
       </c>
       <c r="E19">
-        <v>1.02351072492535</v>
+        <v>1.021726150969439</v>
       </c>
       <c r="F19">
-        <v>1.032560865898153</v>
+        <v>1.031134817648732</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048112331286567</v>
+        <v>1.046953187580229</v>
       </c>
       <c r="J19">
-        <v>1.034686068960697</v>
+        <v>1.032515312991567</v>
       </c>
       <c r="K19">
-        <v>1.03963185991257</v>
+        <v>1.037518448658192</v>
       </c>
       <c r="L19">
-        <v>1.036873172560072</v>
+        <v>1.035117521528931</v>
       </c>
       <c r="M19">
-        <v>1.045778607010334</v>
+        <v>1.044375144488927</v>
       </c>
       <c r="N19">
-        <v>1.036155441858772</v>
+        <v>1.027919397356742</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045368245057217</v>
+        <v>1.044258220472443</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039167922945861</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037689771750378</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022279173641259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006250333339584</v>
+        <v>1.0042156822766</v>
       </c>
       <c r="D20">
-        <v>1.025083631163957</v>
+        <v>1.023135955318453</v>
       </c>
       <c r="E20">
-        <v>1.021796839576201</v>
+        <v>1.020192077757078</v>
       </c>
       <c r="F20">
-        <v>1.030418122399378</v>
+        <v>1.029132837985319</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04750061521173</v>
+        <v>1.046459519828057</v>
       </c>
       <c r="J20">
-        <v>1.033542423295436</v>
+        <v>1.03158505813672</v>
       </c>
       <c r="K20">
-        <v>1.038699303062298</v>
+        <v>1.036783830758712</v>
       </c>
       <c r="L20">
-        <v>1.035466948139317</v>
+        <v>1.033888928982022</v>
       </c>
       <c r="M20">
-        <v>1.043946392808722</v>
+        <v>1.042682060297185</v>
       </c>
       <c r="N20">
-        <v>1.035010172085489</v>
+        <v>1.027520154548647</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043393652431907</v>
+        <v>1.042393070432312</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038512478689008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037174668422798</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022101554645269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002045193531616</v>
+        <v>1.000622418906113</v>
       </c>
       <c r="D21">
-        <v>1.022379905503324</v>
+        <v>1.020963367795981</v>
       </c>
       <c r="E21">
-        <v>1.018556594221812</v>
+        <v>1.017459849949311</v>
       </c>
       <c r="F21">
-        <v>1.027218828017852</v>
+        <v>1.026336295744499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046482415210978</v>
+        <v>1.045765656532865</v>
       </c>
       <c r="J21">
-        <v>1.03145765421833</v>
+        <v>1.030094140071615</v>
       </c>
       <c r="K21">
-        <v>1.036949336193208</v>
+        <v>1.035558176827568</v>
       </c>
       <c r="L21">
-        <v>1.033194732845702</v>
+        <v>1.032117821886243</v>
       </c>
       <c r="M21">
-        <v>1.041702250399736</v>
+        <v>1.040835326054315</v>
       </c>
       <c r="N21">
-        <v>1.032922442397166</v>
+        <v>1.027490101365161</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041576923655306</v>
+        <v>1.040890811859048</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037278407780427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036311626076956</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021884734269397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.999373000465385</v>
+        <v>0.9983244134022267</v>
       </c>
       <c r="D22">
-        <v>1.020664555529506</v>
+        <v>1.019575993564641</v>
       </c>
       <c r="E22">
-        <v>1.016521316564202</v>
+        <v>1.015736112179273</v>
       </c>
       <c r="F22">
-        <v>1.02523576266539</v>
+        <v>1.024600665436428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045833685032763</v>
+        <v>1.045317021438902</v>
       </c>
       <c r="J22">
-        <v>1.03014073772747</v>
+        <v>1.029138326103015</v>
       </c>
       <c r="K22">
-        <v>1.035837465815254</v>
+        <v>1.034769371829091</v>
       </c>
       <c r="L22">
-        <v>1.031772437314191</v>
+        <v>1.031002149012797</v>
       </c>
       <c r="M22">
-        <v>1.040323340410042</v>
+        <v>1.039700039384629</v>
       </c>
       <c r="N22">
-        <v>1.031603655733837</v>
+        <v>1.027424209634936</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040485609655001</v>
+        <v>1.039992308505747</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036478809062813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035739129834279</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021743212873982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000785375587907</v>
+        <v>0.9995143563788212</v>
       </c>
       <c r="D23">
-        <v>1.021564527421125</v>
+        <v>1.020283571096657</v>
       </c>
       <c r="E23">
-        <v>1.017595525444343</v>
+        <v>1.016624418830257</v>
       </c>
       <c r="F23">
-        <v>1.026283606604074</v>
+        <v>1.025500850136368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046173156960814</v>
+        <v>1.045537587637575</v>
       </c>
       <c r="J23">
-        <v>1.030832801262243</v>
+        <v>1.029616139054656</v>
       </c>
       <c r="K23">
-        <v>1.036417349247728</v>
+        <v>1.035159875052077</v>
       </c>
       <c r="L23">
-        <v>1.032521356444307</v>
+        <v>1.031568226377058</v>
       </c>
       <c r="M23">
-        <v>1.041050577248013</v>
+        <v>1.040281989876011</v>
       </c>
       <c r="N23">
-        <v>1.03229670207821</v>
+        <v>1.027373523637588</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041061168634287</v>
+        <v>1.040452883478392</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036879205211018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036004678372549</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021809012525868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006261545728671</v>
+        <v>1.004227485499159</v>
       </c>
       <c r="D24">
-        <v>1.025075317500335</v>
+        <v>1.023128087647332</v>
       </c>
       <c r="E24">
-        <v>1.021777547209815</v>
+        <v>1.020173233405875</v>
       </c>
       <c r="F24">
-        <v>1.030363838220834</v>
+        <v>1.029078768107218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04748192474315</v>
+        <v>1.046441194288674</v>
       </c>
       <c r="J24">
-        <v>1.033520675030146</v>
+        <v>1.031563767411471</v>
       </c>
       <c r="K24">
-        <v>1.038675941405603</v>
+        <v>1.036760867150337</v>
       </c>
       <c r="L24">
-        <v>1.035432721560543</v>
+        <v>1.033855109974625</v>
       </c>
       <c r="M24">
-        <v>1.043877917896746</v>
+        <v>1.042613772242196</v>
       </c>
       <c r="N24">
-        <v>1.034988392935167</v>
+        <v>1.027500319363325</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043298813992974</v>
+        <v>1.042298330642846</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038468652625263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03712841795713</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022091666916832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012422904595761</v>
+        <v>1.009910883779476</v>
       </c>
       <c r="D25">
-        <v>1.029046707662526</v>
+        <v>1.026633611568214</v>
       </c>
       <c r="E25">
-        <v>1.026513393500206</v>
+        <v>1.024519032235793</v>
       </c>
       <c r="F25">
-        <v>1.03499055676206</v>
+        <v>1.033396125779902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048924298798926</v>
+        <v>1.047621967330968</v>
       </c>
       <c r="J25">
-        <v>1.036539301210463</v>
+        <v>1.034109249469632</v>
       </c>
       <c r="K25">
-        <v>1.04121024423825</v>
+        <v>1.038832079740855</v>
       </c>
       <c r="L25">
-        <v>1.03871360737609</v>
+        <v>1.036748282340155</v>
       </c>
       <c r="M25">
-        <v>1.047068930030788</v>
+        <v>1.045497222328451</v>
       </c>
       <c r="N25">
-        <v>1.038011305910902</v>
+        <v>1.028832505707711</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045824272023467</v>
+        <v>1.044580378802482</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040257671423888</v>
+        <v>1.038589707715444</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022488930989048</v>
       </c>
     </row>
   </sheetData>
